--- a/R/2017_08_16_Checked_Hantu_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_08_16_Checked_Hantu_Deep (0m to 120m)_newcleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAC37CA7-C5D9-4F07-86F1-8BED0580623F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D7A4BCB-71C5-4346-A89A-7F63AF5E68DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21223" windowHeight="7222" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="1086">
   <si>
     <t>Date/Time</t>
   </si>
@@ -3279,9 +3279,6 @@
   </si>
   <si>
     <t>Goniopora lobata</t>
-  </si>
-  <si>
-    <t>Cyphastream chalcidicum</t>
   </si>
   <si>
     <t>Mycedium elephantotus</t>
@@ -9080,9 +9077,9 @@
   <dimension ref="A1:T275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="M175" sqref="M175:M176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9812,7 +9809,7 @@
         <v>1060</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -10723,10 +10720,10 @@
         <v>971</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -10795,7 +10792,12 @@
       <c r="K48" s="31" t="s">
         <v>973</v>
       </c>
-      <c r="L48" s="31"/>
+      <c r="L48" s="31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
@@ -11168,7 +11170,7 @@
         <v>1068</v>
       </c>
       <c r="M59" s="37" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -11307,7 +11309,7 @@
         <v>981</v>
       </c>
       <c r="M63" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -11782,10 +11784,10 @@
         <v>971</v>
       </c>
       <c r="L77" s="31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M77" s="31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -12691,7 +12693,7 @@
         <v>1073</v>
       </c>
       <c r="M104" s="35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
@@ -14448,7 +14450,7 @@
         <v>1068</v>
       </c>
       <c r="M157" s="37" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
@@ -14604,7 +14606,7 @@
         <v>1068</v>
       </c>
       <c r="M162" s="37" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
@@ -14805,7 +14807,7 @@
         <v>1068</v>
       </c>
       <c r="M168" s="37" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
@@ -15250,11 +15252,11 @@
       <c r="K182" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="L182" s="31" t="s">
-        <v>1075</v>
-      </c>
-      <c r="M182" s="31" t="s">
-        <v>1075</v>
+      <c r="L182" s="35" t="s">
+        <v>959</v>
+      </c>
+      <c r="M182" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
@@ -17209,10 +17211,10 @@
         <v>943</v>
       </c>
       <c r="L244" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="M244" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.35">
@@ -17278,10 +17280,10 @@
         <v>943</v>
       </c>
       <c r="L246" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="M246" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.35">
@@ -17318,10 +17320,10 @@
         <v>944</v>
       </c>
       <c r="L247" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="M247" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.35">
@@ -17655,10 +17657,10 @@
         <v>947</v>
       </c>
       <c r="L258" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M258" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.35">
@@ -17750,13 +17752,13 @@
         <v>196</v>
       </c>
       <c r="K261" s="21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L261" s="35" t="s">
         <v>1079</v>
       </c>
-      <c r="L261" s="35" t="s">
-        <v>1080</v>
-      </c>
       <c r="M261" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.35">
@@ -17880,10 +17882,10 @@
         <v>927</v>
       </c>
       <c r="L265" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M265" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.35">
